--- a/excel/waga.xlsx
+++ b/excel/waga.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>data</t>
   </si>
@@ -27,16 +27,13 @@
     <t>id_klienta</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>wartosc</t>
   </si>
   <si>
-    <t>66.6</t>
+    <t>2020-12-16</t>
   </si>
   <si>
-    <t>2020-12-16</t>
+    <t>66</t>
   </si>
 </sst>
 </file>
@@ -347,7 +344,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -355,48 +352,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J449"/>
+  <dimension ref="A1:J451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+      <c r="A2">
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -408,7 +406,6 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -5758,6 +5755,12 @@
       <c r="I449" s="1"/>
       <c r="J449" s="1"/>
     </row>
+    <row r="450" spans="1:10">
+      <c r="B450" s="1"/>
+    </row>
+    <row r="451" spans="1:10">
+      <c r="B451" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
